--- a/setting.xlsx
+++ b/setting.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F68DC2-728E-4E07-863E-CC9AD5F5488B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F277BAA7-6763-4972-90F3-625E776408D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="编码对比" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="140">
   <si>
     <t>GIF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,28 +591,132 @@
     <t>https://developers.google.com/speed/webp?hl=en</t>
   </si>
   <si>
-    <t xml:space="preserve">PPM /PGM 
-BMP、GIF
+    <t>HEIF</t>
+  </si>
+  <si>
+    <t>FLIF</t>
+  </si>
+  <si>
+    <r>
+      <t>PPM /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PGM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">、GIF
  Targa, and RLE .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPM / PGM
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PPM /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PGM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 BMP、GIF
 Targa, and RLE .  </t>
-  </si>
-  <si>
-    <t>PGM/PPM (up to 16 bits/channel)/ PBM  
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PGM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/PPM (up to 16 bits/channel)/ PBM  
  PFM (floating point with 1 or 3 channels); 
 BMP  
 TIFF images (uncompress);  
 various raw sample formats.</t>
-  </si>
-  <si>
-    <t>PGM/PPM (up to 16 bits/channel)/ PBM  
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PGM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/PPM (up to 16 bits/channel)/ PBM  
  PFM (floating point with 1 or 3 channels); 
 BMP 
 TIFF images   
 various raw sample formats.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -620,9 +724,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +765,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -738,7 +855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -809,8 +926,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1100,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1604,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409A2C8A-2D12-4E48-8DAB-3C644ED314BB}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1661,10 +1781,10 @@
         <v>101</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>121</v>
@@ -1698,11 +1818,11 @@
       <c r="C4" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>137</v>
+      <c r="D4" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>104</v>
@@ -1746,7 +1866,7 @@
     </row>
     <row r="6" spans="1:9" ht="45">
       <c r="A6" s="14" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>114</v>
@@ -1800,7 +1920,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="16" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>119</v>

--- a/setting.xlsx
+++ b/setting.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F277BAA7-6763-4972-90F3-625E776408D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC30DDB2-1DAB-48C3-B8ED-8C581B7A637E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="147">
   <si>
     <t>GIF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,28 +494,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PNG
-JPEG
-TIFF
-WebP
-raw Y'CbCr samples.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编解码实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPM/PGM
-PAM
-BMP
-TIFF(uncompressed)
-YUV
-PNG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -718,6 +701,43 @@
 various raw sample formats.</t>
     </r>
   </si>
+  <si>
+    <t>PNG
+JPEG
+TIFF
+WebP
+raw Y'CbCr samples.</t>
+  </si>
+  <si>
+    <t>JPEG</t>
+  </si>
+  <si>
+    <t>JPEG-XT</t>
+  </si>
+  <si>
+    <t>reference1367abcd89.zip</t>
+  </si>
+  <si>
+    <t>https://jpeg.org/downloads/jpegxt/reference1367abcd89.zip</t>
+  </si>
+  <si>
+    <t>Reference software (part of ISO/IEC 18477-5)</t>
+  </si>
+  <si>
+    <t>PPM
+PFM</t>
+  </si>
+  <si>
+    <t>PPM
+PNG</t>
+  </si>
+  <si>
+    <t>PPM、PGM
+PAM
+BMP
+TIFF(uncompress)
+PNG</t>
+  </si>
 </sst>
 </file>
 
@@ -726,7 +746,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,8 +802,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,6 +853,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -855,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -930,6 +963,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1619,7 +1670,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>80</v>
@@ -1634,7 +1685,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>77</v>
@@ -1662,7 +1713,7 @@
         <v>95</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>9</v>
@@ -1674,7 +1725,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L12" s="17" t="s">
         <v>46</v>
@@ -1695,7 +1746,7 @@
         <v>94</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>9</v>
@@ -1722,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409A2C8A-2D12-4E48-8DAB-3C644ED314BB}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1733,10 +1784,11 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="12.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="43" style="4" customWidth="1"/>
-    <col min="4" max="5" width="56.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="31.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="49.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="66.140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="56.42578125" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
@@ -1746,7 +1798,7 @@
         <v>96</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>97</v>
@@ -1772,22 +1824,22 @@
     </row>
     <row r="2" spans="1:9" ht="45">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G2" s="24">
         <v>43842</v>
@@ -1808,137 +1860,147 @@
       <c r="H3" s="13"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="75">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:9" s="30" customFormat="1" ht="30">
+      <c r="A4" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="75">
+      <c r="A5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D5" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="24">
+        <v>43984</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="75">
+      <c r="A6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="24">
-        <v>43984</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="90">
-      <c r="A5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="24">
+        <v>43836</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45">
+      <c r="A7" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="24">
+        <v>42853</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="24">
-        <v>43836</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45">
-      <c r="A6" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="24">
-        <v>42853</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="30">
-      <c r="A7" s="14" t="s">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="G8" s="24">
+        <v>43211</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="24">
-        <v>43211</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="16" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1948,13 +2010,28 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{2E33BA0A-29FD-4100-9105-50024BBDE1F2}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{C8D61DD9-B994-4BE7-8588-A919175125A5}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{72062CE1-48E8-48B0-A193-7444F5E4C20C}"/>
-    <hyperlink ref="H7" r:id="rId4" xr:uid="{DEFFF89A-6F1E-431A-B5B7-81E41DE23132}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{C8D61DD9-B994-4BE7-8588-A919175125A5}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{72062CE1-48E8-48B0-A193-7444F5E4C20C}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{DEFFF89A-6F1E-431A-B5B7-81E41DE23132}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
